--- a/src/test/resources/data/localJobs.xlsx
+++ b/src/test/resources/data/localJobs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -36,6 +36,330 @@
     <t xml:space="preserve">List</t>
   </si>
   <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=bf89dc530c9c7406&amp;fccid=727f90356cb5a858&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Tester (London HQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=44518c8db45d786d&amp;fccid=9800b410a818ea2c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=04fb7ec70cb49a74&amp;fccid=af02b98b92a2145b&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=b0b3191413dd63fb&amp;fccid=c7f9774219f26ac9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=28a9741e17988ee7&amp;fccid=374d720d3973ca1c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=52dee8dd4298ec1a&amp;fccid=727f90356cb5a858&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Auditor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=946a247db49c10ec&amp;fccid=727f90356cb5a858&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Know Your Client (KYC) Quality Assurance (QA) Specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=3bba28b877755344&amp;fccid=f1d8e147024abb3f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior QA Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=cb1043f007086985&amp;fccid=c4254ba3c9cb8caf&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior QA Tester - 12 Month FTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=5bcd018347e5693e&amp;fccid=0d2da97e91ec9ab4&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC Analyst / Quality Checker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=0888bb99428d8af6&amp;fccid=6e08c5c242b5b890&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=ba897fada465dfc7&amp;fccid=bfd62d072447f458&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=16e7f18323a90bb9&amp;fccid=d0cd29e61ac51e95&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=88b7596148859baf&amp;fccid=4945cac39dc79b26&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=ea13c15c06158b92&amp;fccid=bfd62d072447f458&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=91ac929a728b0fad&amp;fccid=07fbcbf4ec8ac25a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=5fdf755e72cbc769&amp;fccid=fec9cd1dde418881&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=1975291fc14ff858&amp;fccid=7ffb2f076144ee5d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=c0fff5971726eef1&amp;fccid=ab643851684611c4&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/company/Black-Swan-Data-Ltd/jobs/QA-Manager-18bdaae0905d8126?fccid=37546600efb20685&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=f5016ba135783137&amp;fccid=2f6cf5b0f7c31d8e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=9ebec81dffd5b588&amp;fccid=18a7374fde10337f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=a3526ae8f145bcb6&amp;fccid=bd5dde05a960240d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=7e01bc84469eba22&amp;fccid=618dbc5dbf1c3285&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=6e8e3779d65c6d1f&amp;fccid=68d804b3a2da2db0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=8fa759bb205ed1e5&amp;fccid=94b34ba2ba0627ec&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior iOS Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=24392dc32ced6be7&amp;fccid=73da13d58dc1080c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=213202db9c5c903a&amp;fccid=20bb86b33a3c7256&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior QA Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=2ddcb74096db0df2&amp;fccid=8e3b7e54333c51a9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=672ec3a6c352c5d4&amp;fccid=e53382692531595c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Test Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=631139bf75aaab29&amp;fccid=c9c5dbd616ec8872&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Test Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=aa84db1cb91ea6a0&amp;fccid=04f36097f3ddf22e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead QA Engineer (Automation) FULLY REMOTE, £70K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=ca0c1a3122144661&amp;fccid=dd616958bd9ddc12&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=fd798d35bd38a5bd&amp;fccid=7da7be489732c9ae&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=1c92389afdddc257&amp;fccid=ca5f5e2343767a7d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior QA Test Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=596cf7f3f77faa66&amp;fccid=e996c2d6855fe778&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development Engineer in Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=970881bb32ef3c6f&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online QA Tester - German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=cff5742bc77f1cd0&amp;fccid=c021bbc4d25f2937&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Automation Test Engineer Selenium, Cypress, Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=bf5b53d34ab6be55&amp;fccid=5eb50d3d5911d314&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Android Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=99c9ebe60848cf16&amp;fccid=23ae7f53298852b9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Senior Test Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=72794681d89854b4&amp;fccid=6f5d2a540f5f0169&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=02500a6b4c0b4816&amp;fccid=b3cbeece4f47d1dc&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Quality Automation Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=3890c1a7f53f1f1b&amp;fccid=314d6d2bfc9df32c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=38fb0bcdb61e03a2&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Automation Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=cff9ab352fa5d224&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Software Developer in Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=2af90a22e2337d66&amp;fccid=76fc6fd2eeb8bb8a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=355049fe098ae220&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=e919584b157a1a8e&amp;fccid=4de305266493edf8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Stack Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=634268f1c1bef991&amp;fccid=67a53eb8af88c934&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Automation Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=a7501441806ef5dc&amp;fccid=91b9efb3f8516152&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=b020e43fa62be521&amp;fccid=7da7be489732c9ae&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=b861561366fde3cb&amp;fccid=23ae7f53298852b9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Automation Test Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=55929c2c85a20e9e&amp;fccid=8f35589a37e69470&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Backend Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=58fee5ba1a69bfa3&amp;fccid=7ac852648e11c978&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby Developer / Ruby on Rails - E-commerce - Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=0c877e10fcad21f1&amp;fccid=f877f9ab98439bf6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Test Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=05ab5d1f8c7963b0&amp;fccid=a96b9f1eb6feba24&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Assurance Analyst/Software Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=4aee2ccb9cc3ea40&amp;fccid=15d087074a93aadc&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Automation Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=de376c24255f2654&amp;fccid=c13ad22a926acf9d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=507949d1a8711be6&amp;fccid=14791439155f581c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Tester | Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=14d90b3ee7fbb4a5&amp;fccid=946fa3ef2e6daa21&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=55e3c503d627e55d&amp;fccid=4f4e26bb37f38afa&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior QA Test Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/company/Zoonou/jobs/Junior-QA-Test-Analyst-7dec322fcb138c7c?fccid=e845c5dd58d11526&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead QA Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/rc/clk?jk=9afe84e91deec4fa&amp;fccid=3beb5c0274c87a12&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/company/The-Virtual-Forge/jobs/QA-Engineer-198c9d76bb71c9e9?fccid=f3d5826ae9e85e59&amp;vjs=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Test Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://uk.indeed.com/company/Zoonou/jobs/QA-Test-Analyst-1722784dfeca123a?fccid=e845c5dd58d11526&amp;vjs=3</t>
+  </si>
+  <si>
     <t xml:space="preserve">user1</t>
   </si>
   <si>
@@ -78,460 +402,82 @@
     <t xml:space="preserve">salesmanager105</t>
   </si>
   <si>
-    <t>Game Tester (Night Shift)</t>
-  </si>
-  <si>
-    <t>QA Tester (London HQ)</t>
-  </si>
-  <si>
-    <t>Junior QA Test Engineer</t>
-  </si>
-  <si>
-    <t>QA Engineer</t>
-  </si>
-  <si>
-    <t>QA Tester</t>
-  </si>
-  <si>
-    <t>Compliance QA Tester - Sony (Night Shift)</t>
-  </si>
-  <si>
-    <t>QA Engineer (Fully remote)</t>
-  </si>
-  <si>
-    <t>Graduate QA Engineer</t>
-  </si>
-  <si>
-    <t>Junior Software Tester - Remote role</t>
-  </si>
-  <si>
-    <t>QA Test Analyst</t>
-  </si>
-  <si>
-    <t>Remote QA Engineer</t>
-  </si>
-  <si>
-    <t>Senior QA Test Engineer</t>
-  </si>
-  <si>
-    <t>QA Lead</t>
-  </si>
-  <si>
-    <t>NCHF Claims Quality Assurance Officer</t>
-  </si>
-  <si>
-    <t>UX QA Analyst (Remote)</t>
-  </si>
-  <si>
-    <t>Software Tester</t>
-  </si>
-  <si>
-    <t>KYC Analyst / Quality Checker</t>
-  </si>
-  <si>
-    <t>KYC/KYC QA Leaders | 6M Contract | Kent/Remote</t>
-  </si>
-  <si>
-    <t>QA Analyst</t>
-  </si>
-  <si>
-    <t>Associate Compliance QA Lead (Night Shift)</t>
-  </si>
-  <si>
-    <t>Lead QA Test Engineer</t>
-  </si>
-  <si>
-    <t>Senior QA Associate (GCP) - *Remote*</t>
-  </si>
-  <si>
-    <t>Telecom Rigging QA Auditor</t>
-  </si>
-  <si>
-    <t>QA Lead (DDAT)</t>
-  </si>
-  <si>
-    <t>QA Engineer (junior/mid)</t>
-  </si>
-  <si>
-    <t>UX QA Analyst (Remote, GBR)</t>
-  </si>
-  <si>
-    <t>Quality Assurance Tester (Intermediate)</t>
-  </si>
-  <si>
-    <t>QA Tester – Live Ops / Release</t>
-  </si>
-  <si>
-    <t>Senior Manual QA Tester</t>
-  </si>
-  <si>
-    <t>Quality Control Technician</t>
-  </si>
-  <si>
-    <t>Lead QA Engineer</t>
-  </si>
-  <si>
-    <t>Contract QA Engineer</t>
-  </si>
-  <si>
-    <t>Manager, Quality Assurance</t>
-  </si>
-  <si>
-    <t>Quality Assurance Analyst</t>
-  </si>
-  <si>
-    <t>Senior Game Tester</t>
-  </si>
-  <si>
-    <t>Lead QA</t>
-  </si>
-  <si>
-    <t>Quality Assurance Specialist</t>
-  </si>
-  <si>
-    <t>Test Automation Engineer</t>
-  </si>
-  <si>
-    <t>HEAD OF QUALITY AND STANDARDS</t>
-  </si>
-  <si>
-    <t>Education Quality Lead</t>
-  </si>
-  <si>
-    <t>Junior Digital Tester</t>
-  </si>
-  <si>
-    <t>Senior Python QA Engineer</t>
-  </si>
-  <si>
-    <t>Telecom QA Auditor</t>
-  </si>
-  <si>
-    <t>KYC QA Analyst (Check the Checker)</t>
-  </si>
-  <si>
-    <t>Quality and Governance Lead</t>
-  </si>
-  <si>
-    <t>Graduate Test Engineer / SDET</t>
-  </si>
-  <si>
-    <t>Quality Assurance Engineer</t>
-  </si>
-  <si>
-    <t>Quality Insight Executive (Claims)</t>
-  </si>
-  <si>
-    <t>QA Tester Apprentice</t>
-  </si>
-  <si>
-    <t>QA Automation Engineer</t>
-  </si>
-  <si>
-    <t>Senior QA Tester</t>
-  </si>
-  <si>
-    <t>Quality Control Auditor (Midlands based / fully remote worki...</t>
-  </si>
-  <si>
-    <t>Senior QA / Test Engineer</t>
-  </si>
-  <si>
-    <t>Senior Software QA Engineer - Remote</t>
-  </si>
-  <si>
-    <t>Korean Localisation Tester</t>
-  </si>
-  <si>
-    <t>Test Lead</t>
-  </si>
-  <si>
-    <t>Senior QA Engineer</t>
-  </si>
-  <si>
-    <t>Senior iOS Engineer</t>
-  </si>
-  <si>
-    <t>Software Test Lead</t>
-  </si>
-  <si>
-    <t>QA Test Engineer</t>
-  </si>
-  <si>
-    <t>Lead QA Engineer (Automation) FULLY REMOTE, £70K</t>
-  </si>
-  <si>
-    <t>Remote Automation Tester</t>
-  </si>
-  <si>
-    <t>Test Engineer</t>
-  </si>
-  <si>
-    <t>Software Development Engineer in Test</t>
-  </si>
-  <si>
-    <t>Online QA Tester - German</t>
-  </si>
-  <si>
-    <t>Senior Android Developer</t>
-  </si>
-  <si>
-    <t>QA Senior Test Analyst</t>
-  </si>
-  <si>
-    <t>Senior SDET (API)</t>
-  </si>
-  <si>
-    <t>Android Developer</t>
-  </si>
-  <si>
-    <t>Software Quality Automation Engineer</t>
-  </si>
-  <si>
-    <t>Lead Software Developer in Test</t>
-  </si>
-  <si>
-    <t>Full Stack Engineer</t>
-  </si>
-  <si>
-    <t>Automation Engineer</t>
-  </si>
-  <si>
-    <t>DevOps Engineer</t>
-  </si>
-  <si>
-    <t>Senior Backend Engineer</t>
-  </si>
-  <si>
-    <t>Ruby Developer / Ruby on Rails - E-commerce - Remote</t>
-  </si>
-  <si>
-    <t>Software Test Manager</t>
-  </si>
-  <si>
-    <t>Mobile Automation Tester</t>
-  </si>
-  <si>
-    <t>Quality Assurance Analyst/Software Tester</t>
-  </si>
-  <si>
-    <t>Frontend Developer</t>
-  </si>
-  <si>
-    <t>QA Tester | Remote</t>
-  </si>
-  <si>
-    <t>Junior QA Test Analyst</t>
-  </si>
-  <si>
-    <t>Lead QA Tester</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Senior QA Engineer Automation Testing</t>
-  </si>
-  <si>
-    <t>Senior Automation Test Engineer</t>
-  </si>
-  <si>
-    <t>QA Automation Test Engineer Selenium, Cypress, Postman</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=bd61c04346466bad&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=44518c8db45d786d&amp;fccid=9800b410a818ea2c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=35fa175a15740e48&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=bc879ba6d7525600&amp;fccid=94b1c5dbcd0fe785&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=79e67e44ec9c57ff&amp;fccid=b57995bb15e298ed&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=90d523402b99816e&amp;fccid=82f4b04049b09495&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=c2be84e6f664d3c6&amp;fccid=bccea2998d74da3f&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=919300eeba989d99&amp;fccid=81cf860f9a8bb63f&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=91ac929a728b0fad&amp;fccid=07fbcbf4ec8ac25a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=16e7f18323a90bb9&amp;fccid=d0cd29e61ac51e95&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=f4639fa3a0bb0d6f&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=caef5580ee9c5b55&amp;fccid=4490b8c16ece1047&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=f79e31467f338446&amp;fccid=77087bd1709a8148&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=dbeb16aba828aa73&amp;fccid=c9c5dbd616ec8872&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=25c5a1cf0a9a683e&amp;fccid=069a96b26806555a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=11195e69b92beae5&amp;fccid=91b9efb3f8516152&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/company/Parallax/jobs/Senior-QA-a9c5e3bdb1a6cc7e?fccid=0838546a79b929dd&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=ce8138d0a6affd29&amp;fccid=d995530948ab9cae&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=0ad972241c757f91&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=6461c80a9fcb4b3e&amp;fccid=3230c26aebda155c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=e9aaeeb4acdf6f87&amp;fccid=ca5f5e2343767a7d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=d8c13006c0aa2c8e&amp;fccid=7a6dabc46f75a50e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=cf0f414325480e72&amp;fccid=800f11c47014effe&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=9e7501160324f26b&amp;fccid=04f36097f3ddf22e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=4148cd1f00aebdab&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=e82b8e038019023e&amp;fccid=bfd62d072447f458&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=24392dc32ced6be7&amp;fccid=73da13d58dc1080c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=213202db9c5c903a&amp;fccid=20bb86b33a3c7256&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=2ddcb74096db0df2&amp;fccid=8e3b7e54333c51a9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=672ec3a6c352c5d4&amp;fccid=e53382692531595c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=631139bf75aaab29&amp;fccid=c9c5dbd616ec8872&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=aa84db1cb91ea6a0&amp;fccid=04f36097f3ddf22e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=ca0c1a3122144661&amp;fccid=dd616958bd9ddc12&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=fd798d35bd38a5bd&amp;fccid=7da7be489732c9ae&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=1c92389afdddc257&amp;fccid=ca5f5e2343767a7d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=596cf7f3f77faa66&amp;fccid=e996c2d6855fe778&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=970881bb32ef3c6f&amp;fccid=50ed6589b8cde76e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=cff5742bc77f1cd0&amp;fccid=c021bbc4d25f2937&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=bf5b53d34ab6be55&amp;fccid=5eb50d3d5911d314&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=99c9ebe60848cf16&amp;fccid=23ae7f53298852b9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=72794681d89854b4&amp;fccid=6f5d2a540f5f0169&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=02500a6b4c0b4816&amp;fccid=b3cbeece4f47d1dc&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=3890c1a7f53f1f1b&amp;fccid=314d6d2bfc9df32c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=38fb0bcdb61e03a2&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=cff9ab352fa5d224&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=2af90a22e2337d66&amp;fccid=76fc6fd2eeb8bb8a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=355049fe098ae220&amp;fccid=587a90c72514ac83&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=e919584b157a1a8e&amp;fccid=4de305266493edf8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=634268f1c1bef991&amp;fccid=67a53eb8af88c934&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=a7501441806ef5dc&amp;fccid=91b9efb3f8516152&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=b020e43fa62be521&amp;fccid=7da7be489732c9ae&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=b861561366fde3cb&amp;fccid=23ae7f53298852b9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=55929c2c85a20e9e&amp;fccid=8f35589a37e69470&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=58fee5ba1a69bfa3&amp;fccid=7ac852648e11c978&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=0c877e10fcad21f1&amp;fccid=f877f9ab98439bf6&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=05ab5d1f8c7963b0&amp;fccid=a96b9f1eb6feba24&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=4aee2ccb9cc3ea40&amp;fccid=15d087074a93aadc&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=de376c24255f2654&amp;fccid=c13ad22a926acf9d&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=507949d1a8711be6&amp;fccid=14791439155f581c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=14d90b3ee7fbb4a5&amp;fccid=946fa3ef2e6daa21&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=55e3c503d627e55d&amp;fccid=4f4e26bb37f38afa&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/company/Zoonou/jobs/Junior-QA-Test-Analyst-7dec322fcb138c7c?fccid=e845c5dd58d11526&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/rc/clk?jk=9afe84e91deec4fa&amp;fccid=3beb5c0274c87a12&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/company/The-Virtual-Forge/jobs/QA-Engineer-198c9d76bb71c9e9?fccid=f3d5826ae9e85e59&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://uk.indeed.com/company/Zoonou/jobs/QA-Test-Analyst-1722784dfeca123a?fccid=e845c5dd58d11526&amp;vjs=3</t>
+    <t>Senior Software QA Engineer</t>
+  </si>
+  <si>
+    <t>QA/RA Senior Manager</t>
+  </si>
+  <si>
+    <t>QA Manual Engineer</t>
+  </si>
+  <si>
+    <t>UI Developer</t>
+  </si>
+  <si>
+    <t>QA Storage Test Expert</t>
+  </si>
+  <si>
+    <t>In House CRA</t>
+  </si>
+  <si>
+    <t>Senior Software Test Engineer - Robotics</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>Architect (Ionic,Node,AWS)</t>
+  </si>
+  <si>
+    <t>Senior Front-End Developer</t>
+  </si>
+  <si>
+    <t>Director of Chaos Engineering - Ubuntu &amp; Distributed Systems</t>
+  </si>
+  <si>
+    <t>Community Engineer</t>
+  </si>
+  <si>
+    <t>Dedicated Engineers</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=3f833354847da52e&amp;fccid=83cbd453678ade10&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=61b42b20066aa4e2&amp;fccid=c7329ecd990a1e87&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=b6ee03f1b74fa59a&amp;fccid=da69cc7fb1190c2f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=87cb4e48c95b2206&amp;fccid=a1247e0f0273002a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=e42205987b070b3d&amp;fccid=404d8dccef12ec23&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=95853af20ebefb35&amp;fccid=6c527578251bc5e1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=f5cd9bbb6644a4f8&amp;fccid=bc7b1cb755d12a77&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=75ffe91be437383d&amp;fccid=389b8a90ef238b4f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=0fd7a0e922bb1319&amp;fccid=da69cc7fb1190c2f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=74e4921d489f1792&amp;fccid=c7b9f993bc83cbbb&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=473c4690d08d8592&amp;fccid=3911cf63fc0692f4&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=62615897386a8a73&amp;fccid=3911cf63fc0692f4&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=a2fc83080e802ff0&amp;fccid=db5bd09bf2cdc268&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -634,11 +580,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -654,106 +600,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +724,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -794,106 +740,70 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="B12" s="0" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="B14" s="0" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +828,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -934,106 +844,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +968,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1074,106 +984,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1108,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1214,26 +1124,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1151,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,71 +1159,71 @@
         <v>94</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1248,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1354,106 +1264,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1388,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1494,106 +1404,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1528,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1634,106 +1544,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1754,11 +1664,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.66" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.83" collapsed="true" outlineLevel="0"/>
@@ -1774,106 +1684,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/localJobs.xlsx
+++ b/src/test/resources/data/localJobs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -478,6 +478,30 @@
   </si>
   <si>
     <t>https://tr.indeed.com/rc/clk?jk=a2fc83080e802ff0&amp;fccid=db5bd09bf2cdc268&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>English Turkish Language Expert</t>
+  </si>
+  <si>
+    <t>QA Engineer, IgniteTech (Remote) - $30,000/year USD</t>
+  </si>
+  <si>
+    <t>Project Quality Leader</t>
+  </si>
+  <si>
+    <t>Lead Supplier Quality Inspector (Mechanical Commodity)</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=d1c793aff89a89c3&amp;fccid=b31babcb6321f38f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Bp-pWyh_yd7-BMq_HjiKF8q-wDEEHI6K3EhZcTze0zEvR-NFCW1RxZBIlN3zMxg-_a0rRewiNcEPttf6EywkUo6jfD0QBzPdWMed2TkhoCyMfZxBILCVZY5YccN9_KvR2JMS0lFuAD8BsBDLICcUmxLP6Yv3Z0nxVsNLNy0dO8_K77dJjpASCrp-ruwTmPx8PJ9z0Vl9ACvO78lECpkVLpn9wU9e_2AuMKWP70c-P3OKWym0HZvQgofgV8qnjXNk2FEv1Lqr9QZld4ZI7s0yWZV343pfFeL3obBhw8hDL1T0EcOX_j5kG1YHsj2Ec7xDaTibUBo4y2Xt2QfUgnP4oJ6zTdLIoMqikcn3vQbdxNu7AqexQbJumVrB-WuFdrzhNPiBGjNi3LXZIoyEizCRP37ibpEZ2ghyBBsWmjeIJGPtm3WQRPX8Ou_cbtN1uNzKGnUXdSJoMVLf2OwqWthlATjoQXvAasNJoPPeUdoHVOMZNqS3zpbG7MhXgHhemLh6gqn9K3mF4Qpex8gGRBZ0VXgvb9VBJiD2FUIA4I7x6bIFdl6o5TGDT5Eg71M_O42be--um2R8PdhtVTWlW7rgKS-agODUak_nlwRi1WqaipaTFf1DVPKgCO&amp;xkcb=SoD_-_M3ZjL9eiR9KZ0JbzkdCdPP&amp;p=2&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=026c9514f10b9c41&amp;fccid=1a58d1f68a45eff2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://tr.indeed.com/rc/clk?jk=feaf2936129955a7&amp;fccid=1a58d1f68a45eff2&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -600,106 +624,106 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
